--- a/meta/7-2-1.xlsx
+++ b/meta/7-2-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amamanova\Desktop\ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87489F98-B2E9-4875-A4FB-AEBC98D56159}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -419,9 +420,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -453,8 +451,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,50 +729,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.41796875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -782,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -790,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -798,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -806,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -814,13 +812,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -828,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -836,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,13 +842,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -858,7 +856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -866,13 +864,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -880,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -888,7 +886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -896,13 +894,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -910,7 +908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -918,25 +916,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>27</v>
@@ -949,230 +947,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="41.578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="276.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:2" ht="276.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="20"/>
-    </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E65" s="23"/>
-      <c r="J65" s="22"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63" s="22"/>
+      <c r="J63" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
